--- a/Booking Details/bookings.xlsx
+++ b/Booking Details/bookings.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,21 +461,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fasil</t>
+          <t>Shamil</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Malappuram ,Padikkal </t>
+          <t>Malappuram</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Jhon - (British Columbia - Canada) - (Radiology)</t>
+          <t>Emily Patel - (New Brunswick - Canada) - (Oncology)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -484,110 +484,11 @@
         </is>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.6875</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>SuhaibC</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>6</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ihsaan</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Malappuram</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Sarah Rodriguez - (Delhi - India) - (Cardiology)</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>0.7708333333333334</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>SuhaibC</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Sahal</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Kozhikode</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Emily Patel - (Gujarath - India) - (MBBS - Gujarath - IND)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>SuhaibC</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ashfak</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Malappuram</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Michael Chang - (Ajman - UAE) - (Orthopedic)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>0.7291666666666666</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>SuhaibC</t>
+          <t>Suhaib</t>
         </is>
       </c>
     </row>
